--- a/Tables/New Phones.xlsx
+++ b/Tables/New Phones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\Projects\uds-asset-management\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E89B5EE-BFBA-4E74-8BFF-8F75CEC86269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE96024-D31B-4C55-BF67-7E1B606D0B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{84AF0CCA-B614-43F1-B711-2B3D1F209883}"/>
   </bookViews>
@@ -3255,7 +3255,7 @@
   <dimension ref="A1:E251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E256" sqref="E256"/>
+      <selection activeCell="A106" sqref="A106:E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5053,53 +5053,53 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D106" s="1">
-        <v>46677</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="D106" s="3">
+        <v>46677</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="3">
         <v>46548</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="2" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108" s="3">
         <v>46716</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="2" t="s">
         <v>603</v>
       </c>
     </row>
